--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/VERMONT_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/VERMONT_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -387,7 +387,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C2">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C6">
@@ -620,7 +620,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C18">
@@ -672,7 +672,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Teposcolula</t>
+          <t>San Pedro Y San Pablo Teposcolula</t>
         </is>
       </c>
       <c r="C22">
@@ -711,7 +711,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C25">
@@ -781,7 +781,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C30">
@@ -983,7 +983,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C44">
@@ -996,7 +996,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C45">
@@ -1056,41 +1056,6 @@
       </c>
       <c r="D49">
         <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/VERMONT_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/VERMONT_2018.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Las Rosas</t>
@@ -437,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -450,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -463,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -494,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -569,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -600,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>San Antonino Monte Verde</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>San Francisco Logueche</t>
@@ -657,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>San Jerónimo Coatlán</t>
@@ -670,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>San Pedro Y San Pablo Teposcolula</t>
@@ -683,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Santa María Ipalapa</t>
@@ -696,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -709,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Villa De Etla</t>
@@ -722,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Tecomatlán</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Tepatlaxco De Hidalgo</t>
@@ -792,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -805,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -836,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Total</t>
@@ -867,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Total</t>
@@ -898,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -911,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -924,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -968,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Atzalan</t>
@@ -981,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -994,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -1007,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Tlacotalpan</t>
@@ -1020,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -1033,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
